--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790921.4163865673</v>
+        <v>821713.0191538725</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843294</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6283106.459575417</v>
+        <v>6803346.428530702</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -671,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>125.1611051061865</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>295.829760762468</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -820,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0564930766996</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>124.0599116349196</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>180.1799018254794</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>36.15212641649637</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225796</v>
+        <v>50.38971918733571</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>379.5902071114224</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,16 +1141,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>147.9429603579938</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>136.950576281575</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>131.8799389974539</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>27.85979142137953</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617046</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.81879531036356</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>107.8467675497871</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>64.90507698037602</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>85.55329631630663</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3749,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>119.7254844869146</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>237.3856974213364</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>176.2190657053117</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>117.2376946059855</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.081170338536</v>
+        <v>1627.607712033451</v>
       </c>
       <c r="C2" t="n">
-        <v>918.9386975219597</v>
+        <v>1627.607712033451</v>
       </c>
       <c r="D2" t="n">
-        <v>483.0289126964042</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="E2" t="n">
-        <v>483.0289126964042</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F2" t="n">
-        <v>55.16148310561195</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U2" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="V2" t="n">
-        <v>2737.234686637598</v>
+        <v>2739.567230486873</v>
       </c>
       <c r="W2" t="n">
-        <v>2610.80932794448</v>
+        <v>2334.711775897907</v>
       </c>
       <c r="X2" t="n">
-        <v>2191.666864523791</v>
+        <v>2035.893835733797</v>
       </c>
       <c r="Y2" t="n">
-        <v>1783.380740823444</v>
+        <v>1627.607712033451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N3" t="n">
-        <v>382.60715354234</v>
+        <v>712.2509129837114</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1108.501914899305</v>
+        <v>816.7246757477244</v>
       </c>
       <c r="C4" t="n">
-        <v>935.9402033825301</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="D4" t="n">
-        <v>770.0622105840528</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="E4" t="n">
-        <v>600.30420683479</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F4" t="n">
-        <v>423.5971527965462</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G4" t="n">
-        <v>258.0058778223739</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H4" t="n">
-        <v>120.5750767347985</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2577.993317935594</v>
+        <v>2564.649079530908</v>
       </c>
       <c r="T4" t="n">
-        <v>2332.11387151405</v>
+        <v>2318.769633109363</v>
       </c>
       <c r="U4" t="n">
-        <v>2332.11387151405</v>
+        <v>2040.336632362469</v>
       </c>
       <c r="V4" t="n">
-        <v>2045.15836338448</v>
+        <v>1753.381124232899</v>
       </c>
       <c r="W4" t="n">
-        <v>1773.131958970772</v>
+        <v>1481.354719819191</v>
       </c>
       <c r="X4" t="n">
-        <v>1527.740204304184</v>
+        <v>1235.962965152603</v>
       </c>
       <c r="Y4" t="n">
-        <v>1300.320533618292</v>
+        <v>1008.543294466712</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.7445945665695</v>
+        <v>1774.484990309393</v>
       </c>
       <c r="C5" t="n">
-        <v>236.7445945665695</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="D5" t="n">
-        <v>236.7445945665695</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E5" t="n">
-        <v>236.7445945665695</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F5" t="n">
-        <v>236.7445945665695</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G5" t="n">
-        <v>236.7445945665695</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>476.0797592184824</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>3628.608284768552</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.945156827654</v>
+        <v>3369.385982085569</v>
       </c>
       <c r="V5" t="n">
-        <v>1895.32820676148</v>
+        <v>3006.769032019395</v>
       </c>
       <c r="W5" t="n">
-        <v>1490.472752172513</v>
+        <v>2601.913577430429</v>
       </c>
       <c r="X5" t="n">
-        <v>1071.330288751824</v>
+        <v>2182.771114009739</v>
       </c>
       <c r="Y5" t="n">
-        <v>663.0441650514773</v>
+        <v>1774.484990309393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="N6" t="n">
-        <v>363.05328532595</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="O6" t="n">
-        <v>1040.518870268755</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>905.2407308096831</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="C7" t="n">
-        <v>732.679019292908</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D7" t="n">
-        <v>566.8010264944307</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E7" t="n">
-        <v>397.0430227451681</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F7" t="n">
-        <v>220.3359687069243</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2653.165134592867</v>
+        <v>2639.063415336549</v>
       </c>
       <c r="T7" t="n">
-        <v>2407.285688171322</v>
+        <v>2393.183968915004</v>
       </c>
       <c r="U7" t="n">
-        <v>2128.852687424428</v>
+        <v>2114.750968168109</v>
       </c>
       <c r="V7" t="n">
-        <v>1841.897179294858</v>
+        <v>1827.795460038539</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.87077488115</v>
+        <v>1555.769055624831</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.479020214562</v>
+        <v>1310.377300958243</v>
       </c>
       <c r="Y7" t="n">
-        <v>1097.05934952867</v>
+        <v>1082.957630272352</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D8" t="n">
-        <v>204.5988168005552</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E8" t="n">
-        <v>204.5988168005552</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F8" t="n">
-        <v>204.5988168005552</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3302.508634112981</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>3302.508634112981</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2883.366170692292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2883.366170692292</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M9" t="n">
-        <v>363.05328532595</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N9" t="n">
-        <v>1040.518870268755</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>905.2407308096831</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C10" t="n">
-        <v>732.679019292908</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D10" t="n">
-        <v>566.8010264944307</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E10" t="n">
-        <v>397.0430227451681</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2653.165134592867</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T10" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U10" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V10" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W10" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X10" t="n">
-        <v>1324.479020214562</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.05934952867</v>
+        <v>1202.034638506074</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1790.855915180241</v>
+        <v>1080.983618291963</v>
       </c>
       <c r="C11" t="n">
-        <v>1352.713442363665</v>
+        <v>642.8411454753864</v>
       </c>
       <c r="D11" t="n">
-        <v>916.8036575381091</v>
+        <v>206.9313606498309</v>
       </c>
       <c r="E11" t="n">
-        <v>483.0289126964042</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="F11" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="G11" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M11" t="n">
-        <v>158.3391458505872</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N11" t="n">
-        <v>835.8047307933927</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>1513.270315736198</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T11" t="n">
-        <v>2653.582812821435</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U11" t="n">
-        <v>2653.582812821435</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="V11" t="n">
-        <v>2625.441609365496</v>
+        <v>2739.567230486873</v>
       </c>
       <c r="W11" t="n">
-        <v>2625.441609365496</v>
+        <v>2334.711775897907</v>
       </c>
       <c r="X11" t="n">
-        <v>2625.441609365496</v>
+        <v>1915.569312477217</v>
       </c>
       <c r="Y11" t="n">
-        <v>2217.155485665149</v>
+        <v>1507.283188776871</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N12" t="n">
-        <v>245.8805072316101</v>
+        <v>829.4236910780511</v>
       </c>
       <c r="O12" t="n">
-        <v>923.3460921744155</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P12" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>905.2407308096831</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C13" t="n">
-        <v>732.679019292908</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D13" t="n">
-        <v>566.8010264944307</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E13" t="n">
-        <v>397.0430227451681</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F13" t="n">
-        <v>220.3359687069243</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2653.165134592867</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T13" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U13" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V13" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W13" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X13" t="n">
-        <v>1324.479020214562</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.05934952867</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2079.986069737025</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="C14" t="n">
-        <v>1641.843596920448</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="D14" t="n">
-        <v>1205.933812094893</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="E14" t="n">
-        <v>772.1590672531879</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F14" t="n">
-        <v>344.2916376623957</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G14" t="n">
-        <v>344.2916376623957</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M14" t="n">
-        <v>1409.675863618363</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N14" t="n">
-        <v>2087.141448561168</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>2737.234686637598</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T14" t="n">
-        <v>2517.167459510636</v>
+        <v>3472.537581524823</v>
       </c>
       <c r="U14" t="n">
-        <v>2517.167459510636</v>
+        <v>3213.315278841839</v>
       </c>
       <c r="V14" t="n">
-        <v>2154.550509444463</v>
+        <v>2850.698328775666</v>
       </c>
       <c r="W14" t="n">
-        <v>2154.550509444463</v>
+        <v>2445.842874186699</v>
       </c>
       <c r="X14" t="n">
-        <v>2154.550509444463</v>
+        <v>2026.70041076601</v>
       </c>
       <c r="Y14" t="n">
-        <v>2154.550509444463</v>
+        <v>1618.414287065663</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M15" t="n">
-        <v>54.74469373275195</v>
+        <v>829.4236910780511</v>
       </c>
       <c r="N15" t="n">
-        <v>54.74469373275195</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="O15" t="n">
-        <v>499.7799316366797</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P15" t="n">
-        <v>1177.245516579485</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5843,7 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3205.876241053795</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>3033.31452953702</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>2867.436536738543</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>2697.67853298928</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>2520.971478951036</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3397.694859772782</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,46 +5995,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6312,10 +6314,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436392</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6682,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G32" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,13 +6788,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6935,34 +6937,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -7029,13 +7031,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,31 +7156,31 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7260,19 +7262,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.506529031654</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C41" t="n">
-        <v>1045.364056215078</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D41" t="n">
-        <v>609.4542713895221</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E41" t="n">
-        <v>175.6795265478173</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N41" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3425.34205143033</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="X41" t="n">
-        <v>2318.092223216909</v>
+        <v>2643.582637943467</v>
       </c>
       <c r="Y41" t="n">
-        <v>1909.806099516562</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J42" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7988268351121</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0408230858494</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>79.33376904760556</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1183.831941855708</v>
+        <v>1080.983618291963</v>
       </c>
       <c r="C44" t="n">
-        <v>745.6894690391318</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="D44" t="n">
-        <v>745.6894690391318</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="E44" t="n">
-        <v>745.6894690391318</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F44" t="n">
-        <v>745.6894690391318</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G44" t="n">
-        <v>344.2916376623957</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M44" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T44" t="n">
-        <v>2618.812772894178</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U44" t="n">
-        <v>2359.590470211195</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="V44" t="n">
-        <v>1996.973520145022</v>
+        <v>2739.567230486873</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.118065556055</v>
+        <v>2334.711775897907</v>
       </c>
       <c r="X44" t="n">
-        <v>1592.118065556055</v>
+        <v>1915.569312477217</v>
       </c>
       <c r="Y44" t="n">
-        <v>1183.831941855708</v>
+        <v>1507.283188776871</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J45" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="K45" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="L45" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="M45" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="N45" t="n">
-        <v>382.60715354234</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="O45" t="n">
-        <v>382.60715354234</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2385311503645</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6768196335894</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7988268351121</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0408230858494</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>79.33376904760556</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>331.1742018278667</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8222,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>406.8457045807064</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="N6" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593994</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>104.6408607250861</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>193.0664782816749</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O14" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,16 +9415,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>-3.292261534887825e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,10 +9491,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>110.0804674982792</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,16 +10436,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,19 +11065,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11385,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>275.6457949368905</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>119.1212780240144</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.446659489829614</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22755,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.58904338006366</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>106.0589511857365</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22835,7 +22837,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>181.7144284391954</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22957,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627253</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>42.44636766863624</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,16 +23029,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4408927049749</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.94985625022221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23227,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>297.5570583958338</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>331.1309891441322</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.2177794696951</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>110.0197873059047</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>52.9498562502226</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>303.8632708079697</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25682,10 +25684,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>19.24438223481687</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>257.5419823830993</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25874,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>100.6288602497062</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>429223.657449998</v>
+        <v>518797.5124550823</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>429223.6574499981</v>
+        <v>518797.5124550824</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>429223.6574499981</v>
+        <v>518797.5124550824</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429223.657449998</v>
+        <v>518797.5124550824</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429223.657449998</v>
+        <v>518797.5124550824</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658571.9801716903</v>
+        <v>658571.9801716902</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658571.9801716902</v>
+        <v>658571.9801716903</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429223.6574499981</v>
+        <v>518797.5124550824</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429223.6574499981</v>
+        <v>518797.5124550824</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.0049820329</v>
       </c>
       <c r="C2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
       <c r="D2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
       <c r="E2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
       <c r="F2" t="n">
-        <v>171689.4629799993</v>
+        <v>207519.004982033</v>
       </c>
       <c r="G2" t="n">
         <v>263428.7920686761</v>
@@ -26350,10 +26352,10 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>171689.4629799993</v>
+        <v>207519.004982033</v>
       </c>
       <c r="P2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527206</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="C4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="D4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
@@ -26451,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="O4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="P4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,10 +26496,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133397.2055929803</v>
+        <v>-189520.6716282913</v>
       </c>
       <c r="C6" t="n">
-        <v>95930.36937953261</v>
+        <v>117546.2986584265</v>
       </c>
       <c r="D6" t="n">
-        <v>95930.36937953261</v>
+        <v>117546.2986584265</v>
       </c>
       <c r="E6" t="n">
-        <v>129557.9693795326</v>
+        <v>151173.8986584265</v>
       </c>
       <c r="F6" t="n">
-        <v>129557.9693795326</v>
+        <v>151173.8986584265</v>
       </c>
       <c r="G6" t="n">
-        <v>22110.93327365952</v>
+        <v>85691.1774368289</v>
       </c>
       <c r="H6" t="n">
         <v>184904.221072101</v>
@@ -26543,7 +26545,7 @@
         <v>184904.221072101</v>
       </c>
       <c r="J6" t="n">
-        <v>5858.962984449056</v>
+        <v>-54835.30851464169</v>
       </c>
       <c r="K6" t="n">
         <v>184904.221072101</v>
@@ -26558,10 +26560,10 @@
         <v>184904.221072101</v>
       </c>
       <c r="O6" t="n">
-        <v>129557.9693795326</v>
+        <v>151173.8986584265</v>
       </c>
       <c r="P6" t="n">
-        <v>129557.9693795326</v>
+        <v>151173.8986584265</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>331.1742018278667</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34942,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>406.8457045807064</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="N6" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593994</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>104.6408607250861</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>193.0664782816749</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O14" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,19 +36843,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>110.0804674982792</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="P45" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821713.0191538725</v>
+        <v>820091.8606625893</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655642</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6803346.428530702</v>
+        <v>6803346.428530701</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>195.1569564646409</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>295.829760762468</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -822,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>124.0599116349196</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -907,13 +907,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>36.15212641649637</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -958,7 +958,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>273.627018809549</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>50.38971918733571</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>379.5902071114224</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1147,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.950576281575</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>131.8799389974539</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>389.3965219328845</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.3431845617046</v>
+        <v>160.7884964950062</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,13 +1609,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.8467675497871</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>202.3889873441468</v>
       </c>
     </row>
     <row r="15">
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2484,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>64.90507698037602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>85.55329631630663</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3283,7 +3283,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>237.3856974213364</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>38.65186691787105</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>176.2190657053117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>231.6604091503378</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1627.607712033451</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C2" t="n">
-        <v>1627.607712033451</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.697927207895</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E2" t="n">
-        <v>1191.697927207895</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F2" t="n">
-        <v>763.830497617103</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G2" t="n">
-        <v>362.4326662403668</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M2" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N2" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3361.40648323603</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="U2" t="n">
-        <v>3102.184180553047</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="V2" t="n">
-        <v>2739.567230486873</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="W2" t="n">
-        <v>2334.711775897907</v>
+        <v>3063.141890737016</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.893835733797</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1627.607712033451</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>712.2509129837114</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O3" t="n">
-        <v>1619.369495068052</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P3" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
         <v>1619.369495068052</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>816.7246757477244</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C4" t="n">
-        <v>644.1629642309493</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D4" t="n">
-        <v>644.1629642309493</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E4" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F4" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G4" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
         <v>159.882196848273</v>
@@ -4515,25 +4515,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2564.649079530908</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T4" t="n">
-        <v>2318.769633109363</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U4" t="n">
-        <v>2040.336632362469</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V4" t="n">
-        <v>1753.381124232899</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W4" t="n">
-        <v>1481.354719819191</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.962965152603</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y4" t="n">
-        <v>1008.543294466712</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1774.484990309393</v>
+        <v>1635.747715275385</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.342517492816</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.342517492816</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="E5" t="n">
-        <v>902.5677726511115</v>
+        <v>763.830497617103</v>
       </c>
       <c r="F5" t="n">
-        <v>474.7003430603192</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G5" t="n">
-        <v>73.30251168358309</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M5" t="n">
-        <v>476.0797592184824</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N5" t="n">
-        <v>1383.198341302823</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O5" t="n">
-        <v>2290.316923387164</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3628.608284768552</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3369.385982085569</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V5" t="n">
-        <v>3006.769032019395</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W5" t="n">
-        <v>2601.913577430429</v>
+        <v>2463.17630239642</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.771114009739</v>
+        <v>2044.033838975731</v>
       </c>
       <c r="Y5" t="n">
-        <v>1774.484990309393</v>
+        <v>1635.747715275385</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L6" t="n">
-        <v>980.4210937679237</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M6" t="n">
-        <v>1619.369495068052</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N6" t="n">
-        <v>1619.369495068052</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O6" t="n">
-        <v>1619.369495068052</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P6" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
         <v>1619.369495068052</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>891.1390115533646</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>891.1390115533646</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>725.2610187548873</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
-        <v>555.5030150056247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>378.7959609673809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
         <v>159.882196848273</v>
@@ -4752,25 +4752,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2639.063415336549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2393.183968915004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>2114.750968168109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1827.795460038539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1555.769055624831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1310.377300958243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>1082.957630272352</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2499.941719064592</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C8" t="n">
-        <v>2061.799246248016</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D8" t="n">
-        <v>1625.88946142246</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.114716580755</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F8" t="n">
-        <v>764.247286989963</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G8" t="n">
-        <v>362.8494556132268</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M8" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N8" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>3302.508634112981</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W8" t="n">
-        <v>3302.508634112981</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X8" t="n">
-        <v>2883.366170692292</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y8" t="n">
-        <v>2883.366170692292</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N9" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O9" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
         <v>1078.630556435977</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1063.70072307014</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C10" t="n">
-        <v>891.1390115533646</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D10" t="n">
-        <v>725.2610187548873</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E10" t="n">
-        <v>555.5030150056247</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F10" t="n">
-        <v>378.7959609673809</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G10" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
         <v>159.882196848273</v>
@@ -4986,28 +4986,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2530.720752884379</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T10" t="n">
-        <v>2284.841306462834</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U10" t="n">
-        <v>2006.40830571594</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V10" t="n">
-        <v>1719.45279758637</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W10" t="n">
-        <v>1447.426393172662</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.034638506074</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y10" t="n">
-        <v>1202.034638506074</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1080.983618291963</v>
+        <v>1590.935062593035</v>
       </c>
       <c r="C11" t="n">
-        <v>642.8411454753864</v>
+        <v>1590.935062593035</v>
       </c>
       <c r="D11" t="n">
-        <v>206.9313606498309</v>
+        <v>1590.935062593035</v>
       </c>
       <c r="E11" t="n">
-        <v>73.71930105644309</v>
+        <v>1157.16031775133</v>
       </c>
       <c r="F11" t="n">
-        <v>73.71930105644309</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71930105644309</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M11" t="n">
-        <v>306.9256944654251</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N11" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3361.40648323603</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U11" t="n">
-        <v>3102.184180553047</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V11" t="n">
-        <v>2739.567230486873</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W11" t="n">
-        <v>2334.711775897907</v>
+        <v>2418.363649714071</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.569312477217</v>
+        <v>1999.221186293381</v>
       </c>
       <c r="Y11" t="n">
-        <v>1507.283188776871</v>
+        <v>1590.935062593035</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>829.4236910780511</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
         <v>1736.542273162392</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.7963491011951</v>
+        <v>920.6198965085705</v>
       </c>
       <c r="C13" t="n">
-        <v>610.2346375844201</v>
+        <v>748.0581849917954</v>
       </c>
       <c r="D13" t="n">
-        <v>444.3566447859428</v>
+        <v>582.1801921933181</v>
       </c>
       <c r="E13" t="n">
-        <v>274.59864103668</v>
+        <v>412.4221884440554</v>
       </c>
       <c r="F13" t="n">
-        <v>97.89158699843622</v>
+        <v>235.7151344058116</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
         <v>159.882196848273</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.720752884379</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="T13" t="n">
-        <v>2284.841306462834</v>
+        <v>2422.66485387021</v>
       </c>
       <c r="U13" t="n">
-        <v>2006.40830571594</v>
+        <v>2144.231853123315</v>
       </c>
       <c r="V13" t="n">
-        <v>1719.45279758637</v>
+        <v>1857.276344993745</v>
       </c>
       <c r="W13" t="n">
-        <v>1447.426393172662</v>
+        <v>1585.249940580037</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.034638506074</v>
+        <v>1339.858185913449</v>
       </c>
       <c r="Y13" t="n">
-        <v>974.6149678201823</v>
+        <v>1112.438515227558</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1192.114716580755</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C14" t="n">
-        <v>1192.114716580755</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.114716580755</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E14" t="n">
-        <v>1192.114716580755</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F14" t="n">
-        <v>764.247286989963</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G14" t="n">
-        <v>362.8494556132268</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N14" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P14" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3472.537581524823</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3213.315278841839</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>2850.698328775666</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W14" t="n">
-        <v>2445.842874186699</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X14" t="n">
-        <v>2026.70041076601</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y14" t="n">
-        <v>1618.414287065663</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>829.4236910780511</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
         <v>1736.542273162392</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
         <v>415.6008406959992</v>
@@ -5427,13 +5427,13 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
         <v>159.882196848273</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,46 +5521,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766281</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987179</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,46 +5995,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>306.1208027766281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987179</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436392</v>
@@ -6466,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1039.174348374283</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>866.6126368575082</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>700.7346440590309</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>530.9766403097681</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>354.2695862715243</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>188.678311297352</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1230.99296709327</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,7 +6703,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6937,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K35" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7156,19 +7156,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7359,7 +7359,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
         <v>2454.80183470935</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1808.996943758212</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C41" t="n">
-        <v>1370.854470941636</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D41" t="n">
-        <v>934.9446861160802</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E41" t="n">
-        <v>501.1699412743753</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>306.9256944654251</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M41" t="n">
-        <v>1214.044276549766</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N41" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U41" t="n">
-        <v>3425.34205143033</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V41" t="n">
-        <v>3062.725101364156</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="W41" t="n">
-        <v>3062.725101364156</v>
+        <v>3063.141890737016</v>
       </c>
       <c r="X41" t="n">
-        <v>2643.582637943467</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y41" t="n">
-        <v>2235.29651424312</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
         <v>423.924509810253</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.7985487605142</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C43" t="n">
-        <v>751.2368372437392</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D43" t="n">
-        <v>585.3588444452619</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E43" t="n">
-        <v>415.6008406959992</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F43" t="n">
-        <v>238.8937866577554</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
         <v>159.882196848273</v>
@@ -7596,25 +7596,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.722952543698</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.843506122153</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U43" t="n">
-        <v>2147.410505375259</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V43" t="n">
-        <v>1860.454997245689</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.428592831981</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X43" t="n">
-        <v>1343.036838165393</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.617167479501</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1080.983618291963</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>902.9845620239714</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>902.9845620239714</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>902.9845620239714</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>475.1171324331792</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>306.9256944654251</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N44" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3361.40648323603</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3102.184180553047</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>2739.567230486873</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>2334.711775897907</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.569312477217</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>1507.283188776871</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>99.36618484404069</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>99.36618484404069</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>99.36618484404069</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>99.36618484404069</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>99.36618484404069</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
         <v>1078.630556435977</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.7985487605142</v>
+        <v>835.7514439475952</v>
       </c>
       <c r="C46" t="n">
-        <v>751.2368372437392</v>
+        <v>663.1897324308202</v>
       </c>
       <c r="D46" t="n">
-        <v>585.3588444452619</v>
+        <v>497.3117396323428</v>
       </c>
       <c r="E46" t="n">
-        <v>415.6008406959992</v>
+        <v>327.5537358830801</v>
       </c>
       <c r="F46" t="n">
-        <v>238.8937866577554</v>
+        <v>327.5537358830801</v>
       </c>
       <c r="G46" t="n">
-        <v>73.30251168358309</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="H46" t="n">
-        <v>73.30251168358309</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
         <v>159.882196848273</v>
@@ -7833,25 +7833,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2671.722952543698</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T46" t="n">
-        <v>2425.843506122153</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U46" t="n">
-        <v>2147.410505375259</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V46" t="n">
-        <v>1860.454997245689</v>
+        <v>1772.40789243277</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.428592831981</v>
+        <v>1500.381488019062</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.036838165393</v>
+        <v>1254.989733352474</v>
       </c>
       <c r="Y46" t="n">
-        <v>1115.617167479501</v>
+        <v>1027.570062666582</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>645.4024255556852</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>916.2813960447886</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8224,13 +8224,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>406.8457045807064</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8239,7 +8239,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>645.4024255556852</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10126,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1527324371087</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>22.70959839105083</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>119.1212780240144</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>33.58904338006366</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22795,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>181.7144284391954</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>127.179881233528</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>107.2592358276476</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.44636766863624</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.94985625022221</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>297.5570583958338</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>34.1922333619998</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662726</v>
+        <v>3.146865729424405</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>110.0197873059047</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
     </row>
     <row r="15">
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>52.9498562502226</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>19.24438223481687</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>362.1550331252059</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>257.5419823830993</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>52.425543897936</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>518797.5124550823</v>
+        <v>518797.5124550825</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>518797.5124550824</v>
+        <v>518797.5124550825</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518797.5124550824</v>
+        <v>518797.5124550825</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>518797.5124550824</v>
+        <v>518797.5124550825</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658571.9801716903</v>
+        <v>658571.9801716902</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658571.9801716903</v>
+        <v>658571.9801716902</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518797.5124550824</v>
+        <v>518797.5124550825</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207519.0049820329</v>
+        <v>207519.004982033</v>
       </c>
       <c r="C2" t="n">
         <v>207519.004982033</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527206</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>635.1974440833579</v>
       </c>
       <c r="D4" t="n">
+        <v>635.1974440833579</v>
+      </c>
+      <c r="E4" t="n">
         <v>635.1974440833578</v>
-      </c>
-      <c r="E4" t="n">
-        <v>635.1974440833579</v>
       </c>
       <c r="F4" t="n">
         <v>635.1974440833579</v>
@@ -26435,16 +26435,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
@@ -26453,7 +26453,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
         <v>635.1974440833578</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26496,10 +26496,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189520.6716282913</v>
+        <v>-189823.4449031071</v>
       </c>
       <c r="C6" t="n">
-        <v>117546.2986584265</v>
+        <v>117243.5253836106</v>
       </c>
       <c r="D6" t="n">
-        <v>117546.2986584265</v>
+        <v>117243.5253836107</v>
       </c>
       <c r="E6" t="n">
-        <v>151173.8986584265</v>
+        <v>150871.1253836106</v>
       </c>
       <c r="F6" t="n">
-        <v>151173.8986584265</v>
+        <v>150871.1253836107</v>
       </c>
       <c r="G6" t="n">
-        <v>85691.1774368289</v>
+        <v>85667.95309744636</v>
       </c>
       <c r="H6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327183</v>
       </c>
       <c r="I6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327183</v>
       </c>
       <c r="J6" t="n">
-        <v>-54835.30851464169</v>
+        <v>-54858.53285402439</v>
       </c>
       <c r="K6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327183</v>
       </c>
       <c r="L6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327183</v>
       </c>
       <c r="M6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327184</v>
       </c>
       <c r="N6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327183</v>
       </c>
       <c r="O6" t="n">
-        <v>151173.8986584265</v>
+        <v>150871.1253836107</v>
       </c>
       <c r="P6" t="n">
-        <v>151173.8986584265</v>
+        <v>150871.1253836107</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458551</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>645.4024255556852</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>916.2813960447886</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>406.8457045807064</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>235.9830129109519</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>645.4024255556852</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35181,13 +35181,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35418,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458551</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35889,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38025,13 +38025,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.9830129109515</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
@@ -38095,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1527324371087</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
